--- a/Hardware/battery_box/Battery_Box_2013_v2/Battery box component list 2013 v2.xlsx
+++ b/Hardware/battery_box/Battery_Box_2013_v2/Battery box component list 2013 v2.xlsx
@@ -16,11 +16,12 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
   <si>
     <t>Battery Box component list 2013</t>
   </si>
@@ -356,9 +357,6 @@
   </si>
   <si>
     <t>220u capacitor, 6.3V</t>
-  </si>
-  <si>
-    <t>xx</t>
   </si>
   <si>
     <t>programmer thing!!! (headers)</t>
@@ -512,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,8 +560,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +598,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -718,7 +738,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -727,27 +747,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -760,26 +774,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +806,69 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
@@ -815,12 +879,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1115,77 +1181,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="7" max="7" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
     <col min="11" max="11" width="33.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="3"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="17" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1194,28 +1260,28 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>2063715</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>I4*H4</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1224,40 +1290,40 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>151866</v>
       </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
         <v>0.16800000000000001</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>I5*H5</f>
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9971882</v>
       </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
         <v>0.158</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>I6*H6</f>
         <v>0.158</v>
       </c>
@@ -1265,26 +1331,26 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>9971904</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>I7*H7</f>
         <v>0.14000000000000001</v>
       </c>
@@ -1292,160 +1358,162 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>1105124</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>0.1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>I8*H8</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="I9" s="13"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="8"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="I11" s="13"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="8"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="13"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="D12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="8"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="4">
         <v>1696536</v>
       </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
         <v>0.26</v>
       </c>
-      <c r="J14" s="6">
-        <f t="shared" ref="J14:J16" si="0">I14*H14</f>
+      <c r="J14" s="5">
+        <f>I14*H14</f>
         <v>0.26</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="1">
+      <c r="K14" s="28"/>
+      <c r="L14" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1248143</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1248143</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="L15" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G16" s="3">
         <v>2001770</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J16" s="6">
-        <f t="shared" si="0"/>
+      <c r="J16" s="5">
+        <f>I16*H16</f>
         <v>0.13800000000000001</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="1">
+      <c r="L16" s="1">
         <v>200</v>
       </c>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>0.22</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f>I17*H17</f>
         <v>0.44</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N17" s="1">
+        <v>158</v>
+      </c>
+      <c r="L17" s="1">
         <v>200</v>
       </c>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1454,34 +1522,35 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>1012166</v>
       </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>0.41</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f>I18*H18</f>
         <v>0.41</v>
       </c>
-      <c r="N18" s="1">
+      <c r="L18" s="1">
         <v>200</v>
       </c>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1490,103 +1559,105 @@
       <c r="F19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="G19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f>I19*H19</f>
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="1">
+      <c r="L19" s="1">
         <v>200</v>
       </c>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>155</v>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>9561552</v>
       </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
         <v>2.7E-2</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f>I20*H20</f>
         <v>2.7E-2</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="1">
+        <v>153</v>
+      </c>
+      <c r="L20" s="1">
         <v>200</v>
       </c>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="47">
+        <v>1</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="49">
         <v>1345935</v>
       </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="H21" s="47">
+        <v>1</v>
+      </c>
+      <c r="I21" s="50">
         <v>0.191</v>
       </c>
-      <c r="J21" s="7">
-        <f t="shared" ref="J21:J42" si="1">I21*H21</f>
+      <c r="J21" s="51">
+        <f t="shared" ref="J21:J42" si="0">I21*H21</f>
         <v>0.191</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="23">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48">
         <v>3</v>
       </c>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1595,37 +1666,34 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>2057286</v>
       </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J22" s="6">
-        <f t="shared" si="1"/>
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="L22" s="3">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1634,459 +1702,494 @@
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>1814945</v>
       </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
         <v>1.01</v>
       </c>
-      <c r="J23" s="6">
-        <f t="shared" si="1"/>
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L23" s="3">
-        <v>7</v>
-      </c>
-      <c r="N23" s="1">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="31">
         <v>3</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="33">
         <v>2074395</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="31">
         <v>3</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="38">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J24" s="6">
-        <f t="shared" si="1"/>
+      <c r="J24" s="39">
+        <f t="shared" si="0"/>
         <v>2.6999999999999996E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="K24" s="32"/>
+      <c r="L24" s="32">
         <v>92</v>
       </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="31">
         <v>2</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="33">
         <v>2074334</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="31">
         <v>2</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="38">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J25" s="6">
-        <f t="shared" si="1"/>
+      <c r="J25" s="39">
+        <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="31">
         <v>2</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="33">
         <v>2073608</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="31">
         <v>2</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="38">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J26" s="6">
-        <f t="shared" si="1"/>
+      <c r="J26" s="39">
+        <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L26" s="3">
+      <c r="K26" s="32"/>
+      <c r="L26" s="32">
         <v>95</v>
       </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="31">
         <v>2</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="33">
         <v>2073840</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="31">
         <v>2</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="38">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J27" s="6">
-        <f t="shared" si="1"/>
+      <c r="J27" s="39">
+        <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L27" s="3">
+      <c r="K27" s="32"/>
+      <c r="L27" s="32">
         <v>95</v>
       </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="31">
         <v>2</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="5">
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33">
         <v>2139016</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="31">
         <v>2</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="38">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J28" s="6">
-        <f t="shared" si="1"/>
+      <c r="J28" s="39">
+        <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
-      <c r="L28" s="3">
+      <c r="K28" s="32"/>
+      <c r="L28" s="32">
         <v>45</v>
       </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="31">
         <v>2</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="5">
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33">
         <v>2057651</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="31">
         <v>2</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="38">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" si="1"/>
+      <c r="J29" s="39">
+        <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="K29" s="32"/>
+      <c r="L29" s="32">
         <v>45</v>
       </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="31">
         <v>3</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="5">
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33">
         <v>2073611</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="31">
         <v>3</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="38">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J30" s="6">
-        <f t="shared" si="1"/>
+      <c r="J30" s="39">
+        <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L30" s="3">
+      <c r="K30" s="32"/>
+      <c r="L30" s="32">
         <v>85</v>
       </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="5">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33">
         <v>2073615</v>
       </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="38">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J31" s="6">
-        <f t="shared" si="1"/>
+      <c r="J31" s="39">
+        <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L31" s="3">
+      <c r="K31" s="32"/>
+      <c r="L31" s="32">
         <v>98</v>
       </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>1865265</v>
       </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
         <v>0.12</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>0.18</v>
       </c>
-      <c r="L32" s="3">
-        <v>9</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="L32" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="31">
+        <v>1</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="31">
+        <v>1</v>
+      </c>
+      <c r="I33" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="J33" s="39">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32">
+        <v>99</v>
+      </c>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="31">
+        <v>1</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="31">
+        <v>1</v>
+      </c>
+      <c r="I34" s="38">
+        <v>0.08</v>
+      </c>
+      <c r="J34" s="39">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32">
+        <v>90</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="L33" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="8">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="I34" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="L34" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="1"/>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="M35" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="N35" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="M35" s="53"/>
+    </row>
+    <row r="36" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="40">
+        <v>1</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="5">
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42">
         <v>9694340</v>
       </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="H36" s="40">
+        <v>1</v>
+      </c>
+      <c r="I36" s="43">
         <v>0.35</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="44">
         <f>I36*H36</f>
         <v>0.35</v>
       </c>
-      <c r="M36" s="26" t="s">
-        <v>112</v>
-      </c>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2095,37 +2198,34 @@
       <c r="F37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13">
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
         <v>0.63</v>
       </c>
-      <c r="J37" s="6">
-        <f t="shared" si="1"/>
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
       <c r="L37" s="3">
-        <v>8</v>
-      </c>
-      <c r="N37" s="1">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -2134,41 +2234,50 @@
       <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>1864293</v>
       </c>
-      <c r="H38" s="8">
-        <v>1</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J38" s="6">
-        <f t="shared" si="1"/>
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L38" s="3">
-        <v>8</v>
-      </c>
-      <c r="N38" s="1">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I39" s="13"/>
-      <c r="J39" s="6"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="8">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2177,37 +2286,34 @@
       <c r="F40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>8649839</v>
       </c>
-      <c r="H40" s="8">
-        <v>1</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
         <v>0.32</v>
       </c>
-      <c r="J40" s="6">
-        <f t="shared" si="1"/>
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
       <c r="L40" s="3">
-        <v>8</v>
-      </c>
-      <c r="N40" s="1">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="8">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2216,37 +2322,34 @@
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>2191748</v>
       </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="J41" s="6">
-        <f t="shared" si="1"/>
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
         <v>3.1E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>7</v>
-      </c>
-      <c r="N41" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2255,189 +2358,200 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>1755223</v>
       </c>
-      <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8">
         <v>0.25</v>
       </c>
-      <c r="J42" s="6">
-        <f t="shared" si="1"/>
+      <c r="J42" s="5">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="L42" s="3">
-        <v>8</v>
-      </c>
-      <c r="N42" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="19">
-        <v>1</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="35">
+        <v>1</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="21">
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="36">
         <v>1759470</v>
       </c>
-      <c r="H43" s="19">
-        <v>1</v>
-      </c>
-      <c r="I43" s="19">
+      <c r="H43" s="35">
+        <v>1</v>
+      </c>
+      <c r="I43" s="35">
         <v>0.26</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="35">
         <v>0.26</v>
       </c>
-      <c r="M43" s="22">
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37">
         <v>5</v>
       </c>
+      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <v>2</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>1861427</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="6">
         <v>2</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="6">
         <v>0.121</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <f>I44*H44</f>
         <v>0.24199999999999999</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="L44" s="1">
+        <v>400</v>
+      </c>
       <c r="M44" s="1">
         <v>5</v>
       </c>
-      <c r="N44" s="1">
-        <v>400</v>
-      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>1861424</v>
       </c>
-      <c r="H45" s="8">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
         <v>0.05</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <f>I45*H45</f>
         <v>0.05</v>
       </c>
+      <c r="L45" s="1">
+        <v>200</v>
+      </c>
       <c r="M45" s="1">
         <v>5</v>
       </c>
-      <c r="N45" s="1">
-        <v>200</v>
-      </c>
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="31">
+        <v>1</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="5">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33">
         <v>1327657</v>
       </c>
-      <c r="H46" s="8">
-        <v>1</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" s="31">
+        <v>1</v>
+      </c>
+      <c r="I46" s="31">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="33">
         <f>I46*H46</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="M46" s="1">
+      <c r="L46" s="32"/>
+      <c r="M46" s="34">
         <v>5</v>
       </c>
+      <c r="N46" s="34"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="31">
+        <v>1</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="5">
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33">
         <v>2309029</v>
       </c>
-      <c r="H47" s="8">
-        <v>1</v>
-      </c>
-      <c r="I47" s="8">
+      <c r="H47" s="31">
+        <v>1</v>
+      </c>
+      <c r="I47" s="31">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="33">
         <f>I47*H47</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M47" s="1">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="34">
         <v>5</v>
       </c>
+      <c r="N47" s="34"/>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f>SUM(J4:J47)</f>
         <v>6.552999999999999</v>
       </c>
@@ -2452,614 +2566,614 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" style="34" customWidth="1"/>
-    <col min="3" max="3" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="34"/>
-    <col min="5" max="5" width="76" style="34" customWidth="1"/>
-    <col min="6" max="6" width="71.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="15" style="23" customWidth="1"/>
+    <col min="3" max="3" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="23"/>
+    <col min="5" max="5" width="76" style="23" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="19">
+        <v>1248143</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19">
+        <v>200</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B3" s="30">
-        <v>1248143</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30">
-        <v>200</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30">
+      <c r="F3" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="19">
         <v>2073608</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="19">
         <f>C4*200</f>
         <v>400</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="20">
         <v>1012166</v>
       </c>
-      <c r="C5" s="31">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
         <f t="shared" ref="D5:D31" si="0">C5*200</f>
         <v>200</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1555983</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="31">
-        <v>1555983</v>
-      </c>
-      <c r="C6" s="31">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="F6" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="21">
+        <v>1345935</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E7" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="32">
-        <v>1345935</v>
-      </c>
-      <c r="C7" s="32">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="F7" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="20">
+        <v>2057286</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31">
-        <v>2057286</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="F8" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="20">
+        <v>1814945</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20">
+        <v>2074395</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31">
-        <v>1814945</v>
-      </c>
-      <c r="C9" s="31">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="F10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20">
+        <v>2074334</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="20">
+        <v>2073840</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="20">
+        <v>2139016</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20">
+        <v>2057651</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="20">
+        <v>2073611</v>
+      </c>
+      <c r="C15" s="20">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="20">
+        <v>2073615</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="20">
+        <v>1865265</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31">
-        <v>2074395</v>
-      </c>
-      <c r="C10" s="31">
-        <v>3</v>
-      </c>
-      <c r="D10" s="30">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31">
-        <v>2074334</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="B19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="19">
+        <v>200</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20">
+        <v>9694340</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="20">
+        <v>1864293</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="20">
+        <v>8649839</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="20">
+        <v>2191748</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="20">
+        <v>1755223</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22">
+        <v>1759470</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="20">
+        <v>1861427</v>
+      </c>
+      <c r="C28" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D28" s="19">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31">
-        <v>2073840</v>
-      </c>
-      <c r="C12" s="31">
-        <v>2</v>
-      </c>
-      <c r="D12" s="30">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31">
-        <v>2139016</v>
-      </c>
-      <c r="C13" s="31">
-        <v>2</v>
-      </c>
-      <c r="D13" s="30">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31">
-        <v>2057651</v>
-      </c>
-      <c r="C14" s="31">
-        <v>2</v>
-      </c>
-      <c r="D14" s="30">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="31">
-        <v>2073611</v>
-      </c>
-      <c r="C15" s="31">
-        <v>3</v>
-      </c>
-      <c r="D15" s="30">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31">
-        <v>2073615</v>
-      </c>
-      <c r="C16" s="31">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="E28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="20">
+        <v>1861424</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="31">
-        <v>1865265</v>
-      </c>
-      <c r="C17" s="31">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="E29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20">
+        <v>1327657</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="31">
-        <v>1</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="E30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="20">
+        <v>2309029</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="31">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="30">
-        <v>200</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="31">
-        <v>9694340</v>
-      </c>
-      <c r="C21" s="31">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="31">
-        <v>1</v>
-      </c>
-      <c r="D22" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="31">
-        <v>1864293</v>
-      </c>
-      <c r="C23" s="31">
-        <v>1</v>
-      </c>
-      <c r="D23" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31">
-        <v>8649839</v>
-      </c>
-      <c r="C24" s="31">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="31">
-        <v>2191748</v>
-      </c>
-      <c r="C25" s="31">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="31">
-        <v>1755223</v>
-      </c>
-      <c r="C26" s="31">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33">
-        <v>1759470</v>
-      </c>
-      <c r="C27" s="31">
-        <v>1</v>
-      </c>
-      <c r="D27" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="31">
-        <v>1861427</v>
-      </c>
-      <c r="C28" s="31">
-        <v>2</v>
-      </c>
-      <c r="D28" s="30">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="31">
-        <v>1861424</v>
-      </c>
-      <c r="C29" s="31">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="31">
-        <v>1327657</v>
-      </c>
-      <c r="C30" s="31">
-        <v>1</v>
-      </c>
-      <c r="D30" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E30" s="30" t="s">
+      <c r="E31" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="31">
-        <v>2309029</v>
-      </c>
-      <c r="C31" s="31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="24" t="s">
         <v>73</v>
       </c>
     </row>
